--- a/_resource/excel/table/K-框架-执行输出-(框架定义,策划填写).xlsx
+++ b/_resource/excel/table/K-框架-执行输出-(框架定义,策划填写).xlsx
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -889,7 +889,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection sqref="A1:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>

--- a/_resource/excel/table/K-框架-执行输出-(框架定义,策划填写).xlsx
+++ b/_resource/excel/table/K-框架-执行输出-(框架定义,策划填写).xlsx
@@ -322,7 +322,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ExecuteData=std::vector&lt;{}&gt;</t>
+    <t>ExecuteData=1,std::vector&lt;{}&gt;,输出执行列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -889,7 +889,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD5"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
